--- a/test123.xlsx
+++ b/test123.xlsx
@@ -16,15 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
-    <t>test</t>
+    <t>SNO</t>
   </si>
   <si>
-    <t>xvbcvb</t>
+    <t>UserName</t>
   </si>
   <si>
-    <t>ghbncvm</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test test 2</t>
   </si>
 </sst>
 </file>
@@ -363,27 +366,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test123.xlsx
+++ b/test123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>SNO</t>
   </si>
@@ -24,10 +24,13 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Test test 2</t>
   </si>
   <si>
-    <t>Test test 2</t>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Password1</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -382,7 +389,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -390,10 +397,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,37 +408,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
